--- a/Bibsam_tidskriftslistor/scifree_data_rsc.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_rsc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="146">
   <si>
     <t>ISSN Electronic</t>
   </si>
@@ -315,18 +315,6 @@
     <t>http://dx.doi.org/10.1039/2051-6355/2014</t>
   </si>
   <si>
-    <t>2040-2511</t>
-  </si>
-  <si>
-    <t>2040-2503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MedChemComm </t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.1039/2040-2511/2010</t>
-  </si>
-  <si>
     <t>1756-591X </t>
   </si>
   <si>
@@ -418,18 +406,6 @@
   </si>
   <si>
     <t>http://dx.doi.org/10.1039/2052-4129/2014</t>
-  </si>
-  <si>
-    <t>1474-9092</t>
-  </si>
-  <si>
-    <t>1474-905X</t>
-  </si>
-  <si>
-    <t>Photochemical &amp; Photobiological Sciences</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.1039/1474-9092/2002</t>
   </si>
   <si>
     <t>1463-9084</t>
@@ -807,22 +783,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="4" width="28.5546875" customWidth="1"/>
-    <col min="5" max="5" width="25.5546875" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -845,7 +819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -865,10 +839,10 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -888,10 +862,10 @@
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -911,10 +885,10 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -934,10 +908,10 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -957,10 +931,10 @@
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -980,10 +954,10 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1000,10 +974,10 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1023,10 +997,10 @@
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1046,10 +1020,10 @@
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1069,10 +1043,10 @@
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1092,10 +1066,10 @@
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1115,10 +1089,10 @@
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1138,10 +1112,10 @@
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1161,10 +1135,10 @@
         <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1184,10 +1158,10 @@
         <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1204,10 +1178,10 @@
         <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1227,10 +1201,10 @@
         <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1250,10 +1224,10 @@
         <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1273,10 +1247,10 @@
         <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1296,10 +1270,10 @@
         <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1319,10 +1293,10 @@
         <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1339,10 +1313,10 @@
         <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1362,10 +1336,10 @@
         <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1385,57 +1359,57 @@
         <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
       <c r="B26" t="s">
         <v>102</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>103</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>104</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
         <v>105</v>
       </c>
-      <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="D27" t="s">
         <v>106</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>107</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
         <v>108</v>
       </c>
-      <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>109</v>
       </c>
       <c r="D28" t="s">
@@ -1448,37 +1422,37 @@
         <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
       <c r="B29" t="s">
         <v>112</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>113</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>114</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
         <v>115</v>
       </c>
-      <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>116</v>
       </c>
       <c r="D30" t="s">
@@ -1491,10 +1465,10 @@
         <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1514,10 +1488,10 @@
         <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1537,38 +1511,38 @@
         <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
       <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
         <v>127</v>
       </c>
-      <c r="C33" t="s">
+      <c r="E33" t="s">
         <v>128</v>
       </c>
-      <c r="D33" t="s">
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
         <v>129</v>
       </c>
-      <c r="E33" t="s">
+      <c r="C34" t="s">
         <v>130</v>
-      </c>
-      <c r="F33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" t="s">
-        <v>68</v>
       </c>
       <c r="D34" t="s">
         <v>131</v>
@@ -1580,10 +1554,10 @@
         <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1591,128 +1565,82 @@
         <v>133</v>
       </c>
       <c r="C35" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" t="s">
         <v>134</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>135</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
         <v>136</v>
       </c>
-      <c r="F35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="D36" t="s">
         <v>137</v>
       </c>
-      <c r="C36" t="s">
+      <c r="E36" t="s">
         <v>138</v>
       </c>
-      <c r="D36" t="s">
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
         <v>139</v>
       </c>
-      <c r="E36" t="s">
+      <c r="C37" t="s">
         <v>140</v>
       </c>
-      <c r="F36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="D37" t="s">
         <v>141</v>
       </c>
-      <c r="C37" t="s">
-        <v>141</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>142</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
         <v>143</v>
       </c>
-      <c r="F37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="D38" t="s">
         <v>144</v>
       </c>
-      <c r="D38" t="s">
-        <v>145</v>
-      </c>
       <c r="E38" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="F38" t="s">
         <v>12</v>
       </c>
       <c r="G38" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" t="s">
-        <v>147</v>
-      </c>
-      <c r="C39" t="s">
-        <v>148</v>
-      </c>
-      <c r="D39" t="s">
-        <v>149</v>
-      </c>
-      <c r="E39" t="s">
-        <v>150</v>
-      </c>
-      <c r="F39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" t="s">
-        <v>151</v>
-      </c>
-      <c r="D40" t="s">
-        <v>152</v>
-      </c>
-      <c r="E40" t="s">
-        <v>93</v>
-      </c>
-      <c r="F40" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/Bibsam_tidskriftslistor/scifree_data_rsc.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_rsc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="150">
   <si>
     <t>ISSN Electronic</t>
   </si>
@@ -457,6 +457,18 @@
   </si>
   <si>
     <t>CC-BY, CC-BY-NC</t>
+  </si>
+  <si>
+    <t>2040-2511</t>
+  </si>
+  <si>
+    <t>2040-2503</t>
+  </si>
+  <si>
+    <t>RSC Medicinal Chemistry</t>
+  </si>
+  <si>
+    <t>https://www.rsc.org/journals-books-databases/about-journals/rsc-medicinal-chemistry</t>
   </si>
 </sst>
 </file>
@@ -783,9 +795,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1585,13 +1599,16 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>136</v>
+        <v>146</v>
+      </c>
+      <c r="C36" t="s">
+        <v>147</v>
       </c>
       <c r="D36" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="E36" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="F36" t="s">
         <v>12</v>
@@ -1605,16 +1622,13 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>139</v>
-      </c>
-      <c r="C37" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D37" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E37" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
@@ -1628,18 +1642,41 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" t="s">
+        <v>141</v>
+      </c>
+      <c r="E38" t="s">
+        <v>142</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
         <v>143</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>144</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E39" t="s">
         <v>93</v>
       </c>
-      <c r="F38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
         <v>145</v>
       </c>
     </row>

--- a/Bibsam_tidskriftslistor/scifree_data_rsc.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_rsc.xlsx
@@ -8,7 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="rsc_goldcollection_excluding_archive_2022_titles_newcustomers_2021_11_11" localSheetId="1">Sheet3!$A$1:$Q$52</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -18,8 +22,16 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Connection" type="4" refreshedVersion="6" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="https://www.rsc.org/globalassets/05-journals-books-databases/librarians-information/kbart-marc-urls/november-2021/rsc_goldcollection_excluding_archive_2022_titles_newcustomers_2021_11_11.txt"/>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="260">
   <si>
     <t>ISSN Electronic</t>
   </si>
@@ -315,18 +327,6 @@
     <t>http://dx.doi.org/10.1039/2051-6355/2014</t>
   </si>
   <si>
-    <t>1756-591X </t>
-  </si>
-  <si>
-    <t>1756-5901 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metallomics </t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.1039/1756-591X/2009</t>
-  </si>
-  <si>
     <t>2515-4184</t>
   </si>
   <si>
@@ -469,6 +469,348 @@
   </si>
   <si>
     <t>https://www.rsc.org/journals-books-databases/about-journals/rsc-medicinal-chemistry</t>
+  </si>
+  <si>
+    <t>publication_title</t>
+  </si>
+  <si>
+    <t>print_identifier</t>
+  </si>
+  <si>
+    <t>online_identifier</t>
+  </si>
+  <si>
+    <t>date_first_issue_online</t>
+  </si>
+  <si>
+    <t>num_first_volume_online</t>
+  </si>
+  <si>
+    <t>num_first_issue_online</t>
+  </si>
+  <si>
+    <t>date_last_issue_online</t>
+  </si>
+  <si>
+    <t>num_last_vol_online</t>
+  </si>
+  <si>
+    <t>num_last_issue_online</t>
+  </si>
+  <si>
+    <t>title_url</t>
+  </si>
+  <si>
+    <t>first_author</t>
+  </si>
+  <si>
+    <t>title_id</t>
+  </si>
+  <si>
+    <t>embargo_info</t>
+  </si>
+  <si>
+    <t>coverage_depth</t>
+  </si>
+  <si>
+    <t>coverage_note</t>
+  </si>
+  <si>
+    <t>publisher_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/1364-5528/1876</t>
+  </si>
+  <si>
+    <t>fulltext</t>
+  </si>
+  <si>
+    <t>Analytical Methods</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/1759-9679/2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual Reports on the Progress of Chemistry Section A: Inorganic Chemistry </t>
+  </si>
+  <si>
+    <t>0260-1818</t>
+  </si>
+  <si>
+    <t>1460-4760</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/1460-4760/1979</t>
+  </si>
+  <si>
+    <t>Annual Reports on the Progress of Chemistry Section B : Organic Chemistry</t>
+  </si>
+  <si>
+    <t>0069-3030</t>
+  </si>
+  <si>
+    <t>1460-4779</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/1460-4779/1967</t>
+  </si>
+  <si>
+    <t>Annual Reports on the Progress of Chemistry Section C: Physical Chemistry</t>
+  </si>
+  <si>
+    <t>0260-1826</t>
+  </si>
+  <si>
+    <t>1460-4787</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/1460-4787/1979</t>
+  </si>
+  <si>
+    <t>Biomaterials Science</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/2047-4849/2013</t>
+  </si>
+  <si>
+    <t>Catalysis Science &amp; Technology</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/2044-4761/2011</t>
+  </si>
+  <si>
+    <t>Chemical Communications (Cambridge)</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/1364-548X/1996</t>
+  </si>
+  <si>
+    <t>Chemical Science</t>
+  </si>
+  <si>
+    <t>2041-6520</t>
+  </si>
+  <si>
+    <t>2041-6539</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/2041-6539/2010</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/1460-4744/1972</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/1466-8033/1999</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/1477-9234/2003</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/1754-5706/2008</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/2051-8161/2014</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/2050-7895/2013</t>
+  </si>
+  <si>
+    <t>Previously known as 'Journal of Environmental Monitoring'</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/2053-1419/2015</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/1364-5498/1991</t>
+  </si>
+  <si>
+    <t>Food &amp; Function</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/2042-650X/2010</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/1463-9270/1999</t>
+  </si>
+  <si>
+    <t>Inorganic Chemistry Frontiers</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/2052-1553/2014</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/1364-5544/1986</t>
+  </si>
+  <si>
+    <t>Journal of Environmental Monitoring</t>
+  </si>
+  <si>
+    <t>1464-0325</t>
+  </si>
+  <si>
+    <t>1464-0333</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/1464-0333/1999</t>
+  </si>
+  <si>
+    <t>Journal renamed in 2013 to 'Environmental Science: Processes &amp; Impacts'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of Materials Chemistry </t>
+  </si>
+  <si>
+    <t>1364-5501</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/1364-5501/1991</t>
+  </si>
+  <si>
+    <t>Journal split into 3 sections from 2013, sections A, B &amp; C</t>
+  </si>
+  <si>
+    <t>Journal of Materials Chemistry A</t>
+  </si>
+  <si>
+    <t>2050-7488</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/2050-7496/2013</t>
+  </si>
+  <si>
+    <t>Journal of Materials Chemistry B</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/2050-7518/2013</t>
+  </si>
+  <si>
+    <t>Journal of Materials Chemistry C</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/2050-7534/2013</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/1473-0189/2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Materials Horizons </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/2051-6355/2014</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/2052-1537/2017</t>
+  </si>
+  <si>
+    <t>MedChemComm</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/2040-2511/2010</t>
+  </si>
+  <si>
+    <t>Journal renamed to 'RSC Medinal Chemistry' from 2020</t>
+  </si>
+  <si>
+    <t>Molecular BioSystems</t>
+  </si>
+  <si>
+    <t>1742-2051</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/1742-2051/2005</t>
+  </si>
+  <si>
+    <t>Journal renamed in 2018 to 'Molecular Omics'</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/2515-4184/2018</t>
+  </si>
+  <si>
+    <t>Previously known as 'Molecular BioSystems'</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/2058-9689/2016</t>
+  </si>
+  <si>
+    <t>2058-9686</t>
+  </si>
+  <si>
+    <t>Nanoscale</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/2040-3372/2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2055-6756 </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/2055-6764/2016</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/1460-4752/1984</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/1369-9261/1998</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/1477-0539/2003</t>
+  </si>
+  <si>
+    <t>Organic Chemistry Frontiers</t>
+  </si>
+  <si>
+    <t>2052-4129</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/2052-4129/2014</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/1463-9084/1999</t>
+  </si>
+  <si>
+    <t>Polymer Chemistry</t>
+  </si>
+  <si>
+    <t>1759-9962</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/1759-9962/2010</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/2058-9883/2016</t>
+  </si>
+  <si>
+    <t>RSC Advances</t>
+  </si>
+  <si>
+    <t>2046-2069</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/2046-2069/2011</t>
+  </si>
+  <si>
+    <t>From 2017 journal 'RSC Advances' became an 'Open Access (OA)' one</t>
+  </si>
+  <si>
+    <t>2632-8682</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/2632-8682/2020</t>
+  </si>
+  <si>
+    <t>Journal changed it's name from 'MedChemComm' to 'RSC Medicinal Chemistry' from 2020</t>
+  </si>
+  <si>
+    <t>Soft Matter</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/1744-6848/2005</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/2398-4902/2017</t>
   </si>
 </sst>
 </file>
@@ -519,7 +861,59 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -530,6 +924,29 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="rsc_goldcollection_excluding_archive_2022_titles_newcustomers_2021_11_11" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G47" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:G47"/>
+  <sortState ref="A2:G47">
+    <sortCondition ref="D1:D47"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Imprint"/>
+    <tableColumn id="2" name="ISSN Electronic"/>
+    <tableColumn id="3" name="ISSN Print"/>
+    <tableColumn id="4" name="Journal Name"/>
+    <tableColumn id="5" name="JournalURL"/>
+    <tableColumn id="6" name="Publishing model"/>
+    <tableColumn id="7" name="CC License options"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -795,19 +1212,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" customWidth="1"/>
     <col min="5" max="5" width="25.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -853,7 +1270,7 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -876,7 +1293,7 @@
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -884,22 +1301,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -907,22 +1321,19 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
+        <v>173</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>174</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -930,22 +1341,19 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>178</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -953,22 +1361,22 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -976,19 +1384,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -996,22 +1407,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1019,22 +1430,19 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
+        <v>187</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>185</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>188</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1042,22 +1450,22 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1065,22 +1473,19 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1088,22 +1493,22 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1111,22 +1516,22 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1134,22 +1539,22 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1157,22 +1562,22 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1180,19 +1585,22 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1200,22 +1608,22 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1223,22 +1631,22 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1246,22 +1654,22 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1269,22 +1677,19 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1292,22 +1697,22 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E22" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F22" t="s">
         <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1315,19 +1720,19 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>206</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>204</v>
       </c>
       <c r="E23" t="s">
-        <v>93</v>
+        <v>207</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1335,22 +1740,19 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" t="s">
-        <v>95</v>
+        <v>210</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
+        <v>209</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
+        <v>211</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1358,22 +1760,22 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E25" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1381,19 +1783,22 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
+        <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1401,19 +1806,22 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>83</v>
+      </c>
+      <c r="C27" t="s">
+        <v>84</v>
       </c>
       <c r="D27" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="E27" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1421,22 +1829,22 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="D28" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="E28" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1444,19 +1852,19 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="D29" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="E29" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1464,22 +1872,22 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="D30" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="E30" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1487,22 +1895,19 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" t="s">
-        <v>120</v>
+        <v>228</v>
       </c>
       <c r="D31" t="s">
-        <v>121</v>
+        <v>227</v>
       </c>
       <c r="E31" t="s">
-        <v>122</v>
+        <v>229</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1510,22 +1915,19 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="D32" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="E32" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="F32" t="s">
         <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1533,19 +1935,19 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="D33" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="E33" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1553,22 +1955,22 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="C34" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="D34" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="E34" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="F34" t="s">
         <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1576,22 +1978,19 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>133</v>
-      </c>
-      <c r="C35" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="D35" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="E35" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="F35" t="s">
         <v>12</v>
       </c>
       <c r="G35" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1599,22 +1998,22 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="C36" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="D36" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="E36" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="F36" t="s">
         <v>12</v>
       </c>
       <c r="G36" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1622,19 +2021,22 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>136</v>
+        <v>115</v>
+      </c>
+      <c r="C37" t="s">
+        <v>116</v>
       </c>
       <c r="D37" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="E37" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
       </c>
       <c r="G37" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1642,22 +2044,22 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D38" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="E38" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="F38" t="s">
         <v>12</v>
       </c>
       <c r="G38" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1665,23 +2067,2115 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
+        <v>243</v>
+      </c>
+      <c r="D39" t="s">
+        <v>242</v>
+      </c>
+      <c r="E39" t="s">
+        <v>244</v>
+      </c>
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>123</v>
+      </c>
+      <c r="E40" t="s">
+        <v>124</v>
+      </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" t="s">
+        <v>127</v>
+      </c>
+      <c r="E41" t="s">
+        <v>128</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" t="s">
+        <v>131</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43" t="s">
+        <v>133</v>
+      </c>
+      <c r="E43" t="s">
+        <v>134</v>
+      </c>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" t="s">
         <v>143</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D44" t="s">
         <v>144</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E44" t="s">
+        <v>145</v>
+      </c>
+      <c r="F44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>254</v>
+      </c>
+      <c r="D45" t="s">
+        <v>144</v>
+      </c>
+      <c r="E45" t="s">
+        <v>255</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" t="s">
+        <v>137</v>
+      </c>
+      <c r="E46" t="s">
+        <v>138</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" t="s">
+        <v>140</v>
+      </c>
+      <c r="E47" t="s">
         <v>93</v>
       </c>
-      <c r="F39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" t="s">
-        <v>145</v>
+      <c r="F47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="70.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N1" t="s">
+        <v>159</v>
+      </c>
+      <c r="O1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>2008</v>
+      </c>
+      <c r="E2">
+        <v>133</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J2" t="s">
+        <v>163</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>162</v>
+      </c>
+      <c r="N2" t="s">
+        <v>164</v>
+      </c>
+      <c r="P2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>2009</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I3" t="s">
+        <v>162</v>
+      </c>
+      <c r="J3" t="s">
+        <v>166</v>
+      </c>
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" t="s">
+        <v>162</v>
+      </c>
+      <c r="N3" t="s">
+        <v>164</v>
+      </c>
+      <c r="O3" t="s">
+        <v>162</v>
+      </c>
+      <c r="P3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4">
+        <v>2008</v>
+      </c>
+      <c r="E4">
+        <v>104</v>
+      </c>
+      <c r="F4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4">
+        <v>2013</v>
+      </c>
+      <c r="H4">
+        <v>109</v>
+      </c>
+      <c r="I4" t="s">
+        <v>162</v>
+      </c>
+      <c r="J4" t="s">
+        <v>170</v>
+      </c>
+      <c r="L4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M4" t="s">
+        <v>162</v>
+      </c>
+      <c r="N4" t="s">
+        <v>164</v>
+      </c>
+      <c r="P4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5">
+        <v>2008</v>
+      </c>
+      <c r="E5">
+        <v>104</v>
+      </c>
+      <c r="F5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5">
+        <v>2013</v>
+      </c>
+      <c r="H5">
+        <v>109</v>
+      </c>
+      <c r="I5" t="s">
+        <v>162</v>
+      </c>
+      <c r="J5" t="s">
+        <v>174</v>
+      </c>
+      <c r="L5" t="s">
+        <v>173</v>
+      </c>
+      <c r="M5" t="s">
+        <v>162</v>
+      </c>
+      <c r="N5" t="s">
+        <v>164</v>
+      </c>
+      <c r="P5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6">
+        <v>2008</v>
+      </c>
+      <c r="E6">
+        <v>104</v>
+      </c>
+      <c r="F6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6">
+        <v>2013</v>
+      </c>
+      <c r="H6">
+        <v>109</v>
+      </c>
+      <c r="I6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J6" t="s">
+        <v>178</v>
+      </c>
+      <c r="L6" t="s">
+        <v>177</v>
+      </c>
+      <c r="M6" t="s">
+        <v>162</v>
+      </c>
+      <c r="N6" t="s">
+        <v>164</v>
+      </c>
+      <c r="P6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>2013</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" t="s">
+        <v>164</v>
+      </c>
+      <c r="O7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>2011</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>162</v>
+      </c>
+      <c r="H8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I8" t="s">
+        <v>162</v>
+      </c>
+      <c r="J8" t="s">
+        <v>182</v>
+      </c>
+      <c r="L8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" t="s">
+        <v>162</v>
+      </c>
+      <c r="N8" t="s">
+        <v>164</v>
+      </c>
+      <c r="O8" t="s">
+        <v>162</v>
+      </c>
+      <c r="P8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>2008</v>
+      </c>
+      <c r="E9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H9" t="s">
+        <v>162</v>
+      </c>
+      <c r="I9" t="s">
+        <v>162</v>
+      </c>
+      <c r="J9" t="s">
+        <v>184</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" t="s">
+        <v>162</v>
+      </c>
+      <c r="N9" t="s">
+        <v>164</v>
+      </c>
+      <c r="P9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10">
+        <v>2010</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2014</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>12</v>
+      </c>
+      <c r="J10" t="s">
+        <v>188</v>
+      </c>
+      <c r="L10" t="s">
+        <v>187</v>
+      </c>
+      <c r="M10" t="s">
+        <v>162</v>
+      </c>
+      <c r="N10" t="s">
+        <v>164</v>
+      </c>
+      <c r="P10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11">
+        <v>2008</v>
+      </c>
+      <c r="E11">
+        <v>37</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>162</v>
+      </c>
+      <c r="H11" t="s">
+        <v>162</v>
+      </c>
+      <c r="I11" t="s">
+        <v>162</v>
+      </c>
+      <c r="J11" t="s">
+        <v>189</v>
+      </c>
+      <c r="L11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" t="s">
+        <v>162</v>
+      </c>
+      <c r="N11" t="s">
+        <v>164</v>
+      </c>
+      <c r="P11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12">
+        <v>2008</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>162</v>
+      </c>
+      <c r="H12" t="s">
+        <v>162</v>
+      </c>
+      <c r="I12" t="s">
+        <v>162</v>
+      </c>
+      <c r="J12" t="s">
+        <v>190</v>
+      </c>
+      <c r="L12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" t="s">
+        <v>162</v>
+      </c>
+      <c r="N12" t="s">
+        <v>164</v>
+      </c>
+      <c r="P12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13">
+        <v>2008</v>
+      </c>
+      <c r="E13" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>162</v>
+      </c>
+      <c r="H13" t="s">
+        <v>162</v>
+      </c>
+      <c r="I13" t="s">
+        <v>162</v>
+      </c>
+      <c r="J13" t="s">
+        <v>191</v>
+      </c>
+      <c r="L13" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" t="s">
+        <v>162</v>
+      </c>
+      <c r="N13" t="s">
+        <v>164</v>
+      </c>
+      <c r="P13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14">
+        <v>2008</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>162</v>
+      </c>
+      <c r="H14" t="s">
+        <v>162</v>
+      </c>
+      <c r="I14" t="s">
+        <v>162</v>
+      </c>
+      <c r="J14" t="s">
+        <v>192</v>
+      </c>
+      <c r="L14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" t="s">
+        <v>162</v>
+      </c>
+      <c r="N14" t="s">
+        <v>164</v>
+      </c>
+      <c r="O14" t="s">
+        <v>162</v>
+      </c>
+      <c r="P14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15">
+        <v>2014</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>193</v>
+      </c>
+      <c r="L15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16">
+        <v>2013</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>194</v>
+      </c>
+      <c r="L16" t="s">
+        <v>48</v>
+      </c>
+      <c r="N16" t="s">
+        <v>164</v>
+      </c>
+      <c r="O16" t="s">
+        <v>195</v>
+      </c>
+      <c r="P16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17">
+        <v>2015</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>196</v>
+      </c>
+      <c r="L17" t="s">
+        <v>52</v>
+      </c>
+      <c r="N17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18">
+        <v>2008</v>
+      </c>
+      <c r="E18">
+        <v>137</v>
+      </c>
+      <c r="F18" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" t="s">
+        <v>162</v>
+      </c>
+      <c r="H18" t="s">
+        <v>162</v>
+      </c>
+      <c r="I18" t="s">
+        <v>162</v>
+      </c>
+      <c r="J18" t="s">
+        <v>197</v>
+      </c>
+      <c r="L18" t="s">
+        <v>57</v>
+      </c>
+      <c r="M18" t="s">
+        <v>162</v>
+      </c>
+      <c r="N18" t="s">
+        <v>164</v>
+      </c>
+      <c r="P18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19">
+        <v>2010</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>162</v>
+      </c>
+      <c r="H19" t="s">
+        <v>162</v>
+      </c>
+      <c r="I19" t="s">
+        <v>162</v>
+      </c>
+      <c r="J19" t="s">
+        <v>199</v>
+      </c>
+      <c r="L19" t="s">
+        <v>60</v>
+      </c>
+      <c r="M19" t="s">
+        <v>162</v>
+      </c>
+      <c r="N19" t="s">
+        <v>164</v>
+      </c>
+      <c r="O19" t="s">
+        <v>162</v>
+      </c>
+      <c r="P19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20">
+        <v>2008</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>162</v>
+      </c>
+      <c r="H20" t="s">
+        <v>162</v>
+      </c>
+      <c r="I20" t="s">
+        <v>162</v>
+      </c>
+      <c r="J20" t="s">
+        <v>200</v>
+      </c>
+      <c r="L20" t="s">
+        <v>64</v>
+      </c>
+      <c r="M20" t="s">
+        <v>162</v>
+      </c>
+      <c r="N20" t="s">
+        <v>164</v>
+      </c>
+      <c r="P20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>201</v>
+      </c>
+      <c r="B21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21">
+        <v>2014</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>202</v>
+      </c>
+      <c r="L21" t="s">
+        <v>68</v>
+      </c>
+      <c r="N21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22">
+        <v>2008</v>
+      </c>
+      <c r="E22">
+        <v>23</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>162</v>
+      </c>
+      <c r="H22" t="s">
+        <v>162</v>
+      </c>
+      <c r="I22" t="s">
+        <v>162</v>
+      </c>
+      <c r="J22" t="s">
+        <v>203</v>
+      </c>
+      <c r="L22" t="s">
+        <v>71</v>
+      </c>
+      <c r="M22" t="s">
+        <v>162</v>
+      </c>
+      <c r="N22" t="s">
+        <v>164</v>
+      </c>
+      <c r="P22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>204</v>
+      </c>
+      <c r="B23" t="s">
+        <v>205</v>
+      </c>
+      <c r="C23" t="s">
+        <v>206</v>
+      </c>
+      <c r="D23">
+        <v>2008</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2012</v>
+      </c>
+      <c r="H23">
+        <v>14</v>
+      </c>
+      <c r="I23">
+        <v>12</v>
+      </c>
+      <c r="J23" t="s">
+        <v>207</v>
+      </c>
+      <c r="L23" t="s">
+        <v>206</v>
+      </c>
+      <c r="M23" t="s">
+        <v>162</v>
+      </c>
+      <c r="N23" t="s">
+        <v>164</v>
+      </c>
+      <c r="O23" t="s">
+        <v>208</v>
+      </c>
+      <c r="P23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>209</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="s">
+        <v>210</v>
+      </c>
+      <c r="D24">
+        <v>2008</v>
+      </c>
+      <c r="E24">
+        <v>18</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2012</v>
+      </c>
+      <c r="H24">
+        <v>22</v>
+      </c>
+      <c r="I24">
+        <v>52</v>
+      </c>
+      <c r="J24" t="s">
+        <v>211</v>
+      </c>
+      <c r="L24" t="s">
+        <v>210</v>
+      </c>
+      <c r="M24" t="s">
+        <v>162</v>
+      </c>
+      <c r="N24" t="s">
+        <v>164</v>
+      </c>
+      <c r="O24" t="s">
+        <v>212</v>
+      </c>
+      <c r="P24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>213</v>
+      </c>
+      <c r="B25" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25">
+        <v>2013</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>215</v>
+      </c>
+      <c r="L25" t="s">
+        <v>75</v>
+      </c>
+      <c r="N25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>216</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26">
+        <v>2013</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>217</v>
+      </c>
+      <c r="L26" t="s">
+        <v>79</v>
+      </c>
+      <c r="N26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>218</v>
+      </c>
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27">
+        <v>2013</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>219</v>
+      </c>
+      <c r="L27" t="s">
+        <v>83</v>
+      </c>
+      <c r="N27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28">
+        <v>2008</v>
+      </c>
+      <c r="E28">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>162</v>
+      </c>
+      <c r="H28" t="s">
+        <v>162</v>
+      </c>
+      <c r="I28" t="s">
+        <v>162</v>
+      </c>
+      <c r="J28" t="s">
+        <v>220</v>
+      </c>
+      <c r="L28" t="s">
+        <v>87</v>
+      </c>
+      <c r="M28" t="s">
+        <v>162</v>
+      </c>
+      <c r="N28" t="s">
+        <v>164</v>
+      </c>
+      <c r="P28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>221</v>
+      </c>
+      <c r="B29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29">
+        <v>2014</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>222</v>
+      </c>
+      <c r="L29" t="s">
+        <v>94</v>
+      </c>
+      <c r="N29" t="s">
+        <v>164</v>
+      </c>
+      <c r="O29" t="s">
+        <v>162</v>
+      </c>
+      <c r="P29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30">
+        <v>2017</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>223</v>
+      </c>
+      <c r="L30" t="s">
+        <v>91</v>
+      </c>
+      <c r="N30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>224</v>
+      </c>
+      <c r="B31" t="s">
+        <v>162</v>
+      </c>
+      <c r="C31" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31">
+        <v>2010</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2019</v>
+      </c>
+      <c r="H31">
+        <v>10</v>
+      </c>
+      <c r="I31">
+        <v>12</v>
+      </c>
+      <c r="J31" t="s">
+        <v>225</v>
+      </c>
+      <c r="L31" t="s">
+        <v>142</v>
+      </c>
+      <c r="M31" t="s">
+        <v>162</v>
+      </c>
+      <c r="N31" t="s">
+        <v>164</v>
+      </c>
+      <c r="O31" t="s">
+        <v>226</v>
+      </c>
+      <c r="P31" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>227</v>
+      </c>
+      <c r="B32" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" t="s">
+        <v>228</v>
+      </c>
+      <c r="D32">
+        <v>2008</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>2017</v>
+      </c>
+      <c r="H32">
+        <v>13</v>
+      </c>
+      <c r="I32">
+        <v>12</v>
+      </c>
+      <c r="J32" t="s">
+        <v>229</v>
+      </c>
+      <c r="L32" t="s">
+        <v>228</v>
+      </c>
+      <c r="M32" t="s">
+        <v>162</v>
+      </c>
+      <c r="N32" t="s">
+        <v>164</v>
+      </c>
+      <c r="O32" t="s">
+        <v>230</v>
+      </c>
+      <c r="P32" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33">
+        <v>2018</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>231</v>
+      </c>
+      <c r="L33" t="s">
+        <v>98</v>
+      </c>
+      <c r="N33" t="s">
+        <v>164</v>
+      </c>
+      <c r="O33" t="s">
+        <v>232</v>
+      </c>
+      <c r="P33" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34">
+        <v>2016</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>233</v>
+      </c>
+      <c r="L34" t="s">
+        <v>234</v>
+      </c>
+      <c r="N34" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>235</v>
+      </c>
+      <c r="B35" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35">
+        <v>2009</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>162</v>
+      </c>
+      <c r="H35" t="s">
+        <v>162</v>
+      </c>
+      <c r="I35" t="s">
+        <v>162</v>
+      </c>
+      <c r="J35" t="s">
+        <v>236</v>
+      </c>
+      <c r="L35" t="s">
+        <v>104</v>
+      </c>
+      <c r="M35" t="s">
+        <v>162</v>
+      </c>
+      <c r="N35" t="s">
+        <v>164</v>
+      </c>
+      <c r="O35" t="s">
+        <v>162</v>
+      </c>
+      <c r="P35" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" t="s">
+        <v>237</v>
+      </c>
+      <c r="C36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36">
+        <v>2016</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>238</v>
+      </c>
+      <c r="L36" t="s">
+        <v>108</v>
+      </c>
+      <c r="N36" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37">
+        <v>2008</v>
+      </c>
+      <c r="E37">
+        <v>25</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>162</v>
+      </c>
+      <c r="H37" t="s">
+        <v>162</v>
+      </c>
+      <c r="I37" t="s">
+        <v>162</v>
+      </c>
+      <c r="J37" t="s">
+        <v>239</v>
+      </c>
+      <c r="L37" t="s">
+        <v>111</v>
+      </c>
+      <c r="M37" t="s">
+        <v>162</v>
+      </c>
+      <c r="N37" t="s">
+        <v>164</v>
+      </c>
+      <c r="P37" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38">
+        <v>2008</v>
+      </c>
+      <c r="E38">
+        <v>32</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>162</v>
+      </c>
+      <c r="H38" t="s">
+        <v>162</v>
+      </c>
+      <c r="I38" t="s">
+        <v>162</v>
+      </c>
+      <c r="J38" t="s">
+        <v>240</v>
+      </c>
+      <c r="L38" t="s">
+        <v>115</v>
+      </c>
+      <c r="M38" t="s">
+        <v>162</v>
+      </c>
+      <c r="N38" t="s">
+        <v>164</v>
+      </c>
+      <c r="P38" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39">
+        <v>2008</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>162</v>
+      </c>
+      <c r="H39" t="s">
+        <v>162</v>
+      </c>
+      <c r="I39" t="s">
+        <v>162</v>
+      </c>
+      <c r="J39" t="s">
+        <v>241</v>
+      </c>
+      <c r="L39" t="s">
+        <v>119</v>
+      </c>
+      <c r="M39" t="s">
+        <v>162</v>
+      </c>
+      <c r="N39" t="s">
+        <v>164</v>
+      </c>
+      <c r="P39" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>242</v>
+      </c>
+      <c r="B40" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40" t="s">
+        <v>243</v>
+      </c>
+      <c r="D40">
+        <v>2014</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>244</v>
+      </c>
+      <c r="L40" t="s">
+        <v>243</v>
+      </c>
+      <c r="N40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41">
+        <v>2008</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>162</v>
+      </c>
+      <c r="H41" t="s">
+        <v>162</v>
+      </c>
+      <c r="I41" t="s">
+        <v>162</v>
+      </c>
+      <c r="J41" t="s">
+        <v>245</v>
+      </c>
+      <c r="L41" t="s">
+        <v>125</v>
+      </c>
+      <c r="M41" t="s">
+        <v>162</v>
+      </c>
+      <c r="N41" t="s">
+        <v>164</v>
+      </c>
+      <c r="P41" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>246</v>
+      </c>
+      <c r="B42" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" t="s">
+        <v>247</v>
+      </c>
+      <c r="D42">
+        <v>2010</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>162</v>
+      </c>
+      <c r="H42" t="s">
+        <v>162</v>
+      </c>
+      <c r="I42" t="s">
+        <v>162</v>
+      </c>
+      <c r="J42" t="s">
+        <v>248</v>
+      </c>
+      <c r="L42" t="s">
+        <v>129</v>
+      </c>
+      <c r="M42" t="s">
+        <v>162</v>
+      </c>
+      <c r="N42" t="s">
+        <v>164</v>
+      </c>
+      <c r="O42" t="s">
+        <v>162</v>
+      </c>
+      <c r="P42" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43">
+        <v>2016</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>249</v>
+      </c>
+      <c r="L43" t="s">
+        <v>132</v>
+      </c>
+      <c r="N43" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>250</v>
+      </c>
+      <c r="C44" t="s">
+        <v>251</v>
+      </c>
+      <c r="D44">
+        <v>2011</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>2016</v>
+      </c>
+      <c r="H44">
+        <v>6</v>
+      </c>
+      <c r="I44">
+        <v>116</v>
+      </c>
+      <c r="J44" t="s">
+        <v>252</v>
+      </c>
+      <c r="L44" t="s">
+        <v>251</v>
+      </c>
+      <c r="M44" t="s">
+        <v>162</v>
+      </c>
+      <c r="N44" t="s">
+        <v>164</v>
+      </c>
+      <c r="O44" t="s">
+        <v>253</v>
+      </c>
+      <c r="P44" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" t="s">
+        <v>254</v>
+      </c>
+      <c r="D45">
+        <v>2020</v>
+      </c>
+      <c r="E45">
+        <v>11</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>162</v>
+      </c>
+      <c r="H45" t="s">
+        <v>162</v>
+      </c>
+      <c r="I45" t="s">
+        <v>162</v>
+      </c>
+      <c r="J45" t="s">
+        <v>255</v>
+      </c>
+      <c r="L45" t="s">
+        <v>142</v>
+      </c>
+      <c r="M45" t="s">
+        <v>162</v>
+      </c>
+      <c r="N45" t="s">
+        <v>164</v>
+      </c>
+      <c r="O45" t="s">
+        <v>256</v>
+      </c>
+      <c r="P45" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>257</v>
+      </c>
+      <c r="B46" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46">
+        <v>2008</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>162</v>
+      </c>
+      <c r="H46" t="s">
+        <v>162</v>
+      </c>
+      <c r="I46" t="s">
+        <v>162</v>
+      </c>
+      <c r="J46" t="s">
+        <v>258</v>
+      </c>
+      <c r="L46" t="s">
+        <v>135</v>
+      </c>
+      <c r="M46" t="s">
+        <v>162</v>
+      </c>
+      <c r="N46" t="s">
+        <v>164</v>
+      </c>
+      <c r="O46" t="s">
+        <v>162</v>
+      </c>
+      <c r="P46" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47">
+        <v>2017</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="J47" t="s">
+        <v>259</v>
+      </c>
+      <c r="L47" t="s">
+        <v>139</v>
+      </c>
+      <c r="N47" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Bibsam_tidskriftslistor/scifree_data_rsc.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_rsc.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_8A8355D3CADCAC7CDE32A3D7DD027E6962EED8DD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCFD4D9E-31BF-4452-BF3A-996E74BEA24B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="162">
   <si>
     <t>ISSN Electronic</t>
   </si>
@@ -453,33 +454,6 @@
     <t>https://www.rsc.org/journals-books-databases/about-journals/rsc-medicinal-chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">Annual Reports on the Progress of Chemistry Section A: Inorganic Chemistry </t>
-  </si>
-  <si>
-    <t>1460-4760</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1039/1460-4760/1979</t>
-  </si>
-  <si>
-    <t>Annual Reports on the Progress of Chemistry Section B : Organic Chemistry</t>
-  </si>
-  <si>
-    <t>1460-4779</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1039/1460-4779/1967</t>
-  </si>
-  <si>
-    <t>Annual Reports on the Progress of Chemistry Section C: Physical Chemistry</t>
-  </si>
-  <si>
-    <t>1460-4787</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1039/1460-4787/1979</t>
-  </si>
-  <si>
     <t>Chemical Science</t>
   </si>
   <si>
@@ -523,22 +497,23 @@
   </si>
   <si>
     <t>https://doi.org/10.1039/2052-4129/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MedChemComm </t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1039/2040-2511/2010</t>
+  </si>
+  <si>
+    <t>2632-8682</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -566,42 +541,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -615,19 +561,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G45" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:G45"/>
-  <sortState ref="A2:G47">
-    <sortCondition ref="D1:D47"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D56AF04D-CD95-4202-BEEE-EA96C387F7F9}" name="Table2" displayName="Table2" ref="A1:G43" totalsRowShown="0">
+  <autoFilter ref="A1:G43" xr:uid="{D56AF04D-CD95-4202-BEEE-EA96C387F7F9}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Imprint"/>
-    <tableColumn id="2" name="ISSN Electronic"/>
-    <tableColumn id="3" name="ISSN Print"/>
-    <tableColumn id="4" name="Journal Name"/>
-    <tableColumn id="5" name="JournalURL"/>
-    <tableColumn id="6" name="Publishing model"/>
-    <tableColumn id="7" name="CC License options"/>
+    <tableColumn id="1" xr3:uid="{B1FF1231-E03F-48E6-9D41-E6E5788EEA8E}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{7B68A1E0-14D5-4E75-94DC-CABC8BC376F9}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{4B487ECF-F60F-49C0-A5C2-4F9D957B9D7F}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{0BF8AF11-3265-43EB-92EA-556BB7A8E0A1}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{A0671979-2025-4DAD-AF8A-1391D32D77E9}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{0642EA20-EF20-4282-9A42-7C3E757204ED}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{AA4CD8C6-7D87-46AF-8EFA-F4EFFAC37E48}" name="CC License options"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -895,42 +838,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC94F9A-5943-4AC3-8AEE-9D7EC508522C}">
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -985,13 +930,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -1005,13 +953,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -1025,13 +976,16 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -1045,16 +999,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -1068,16 +1019,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -1091,16 +1042,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -1114,13 +1062,16 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>153</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
@@ -1134,16 +1085,16 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -1157,13 +1108,16 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1177,16 +1131,16 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -1200,16 +1154,16 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
@@ -1223,16 +1177,16 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -1246,16 +1200,16 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -1269,16 +1223,16 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
@@ -1292,16 +1246,13 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
@@ -1315,16 +1266,16 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
@@ -1338,16 +1289,13 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
@@ -1361,13 +1309,13 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="E21" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -1381,16 +1329,16 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s">
         <v>12</v>
@@ -1404,13 +1352,16 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>157</v>
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
+        <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="E23" t="s">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
@@ -1424,13 +1375,16 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>160</v>
+        <v>83</v>
+      </c>
+      <c r="C24" t="s">
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>159</v>
+        <v>85</v>
       </c>
       <c r="E24" t="s">
-        <v>161</v>
+        <v>86</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
@@ -1444,16 +1398,16 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="E25" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
@@ -1467,16 +1421,13 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E26" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
@@ -1490,16 +1441,16 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D27" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E27" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
@@ -1513,16 +1464,16 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="E28" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
@@ -1536,13 +1487,13 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="D29" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="E29" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
@@ -1556,16 +1507,13 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E30" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
@@ -1579,13 +1527,13 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="E31" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
@@ -1599,13 +1547,16 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>104</v>
+      </c>
+      <c r="C32" t="s">
+        <v>105</v>
       </c>
       <c r="D32" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E32" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F32" t="s">
         <v>12</v>
@@ -1619,13 +1570,13 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E33" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
@@ -1639,16 +1590,16 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E34" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F34" t="s">
         <v>12</v>
@@ -1662,13 +1613,16 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>115</v>
+      </c>
+      <c r="C35" t="s">
+        <v>116</v>
       </c>
       <c r="D35" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E35" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F35" t="s">
         <v>12</v>
@@ -1682,16 +1636,16 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D36" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E36" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F36" t="s">
         <v>12</v>
@@ -1705,16 +1659,13 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
-      </c>
-      <c r="C37" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="D37" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="E37" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
@@ -1728,16 +1679,16 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C38" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D38" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E38" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F38" t="s">
         <v>12</v>
@@ -1751,13 +1702,16 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>166</v>
+        <v>127</v>
+      </c>
+      <c r="C39" t="s">
+        <v>127</v>
       </c>
       <c r="D39" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="E39" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="F39" t="s">
         <v>12</v>
@@ -1771,16 +1725,13 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
-      </c>
-      <c r="C40" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D40" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E40" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F40" t="s">
         <v>12</v>
@@ -1794,16 +1745,13 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
-      </c>
-      <c r="C41" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="D41" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="E41" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="F41" t="s">
         <v>12</v>
@@ -1817,13 +1765,16 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>130</v>
+        <v>133</v>
+      </c>
+      <c r="C42" t="s">
+        <v>134</v>
       </c>
       <c r="D42" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E42" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F42" t="s">
         <v>12</v>
@@ -1837,16 +1788,13 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>140</v>
-      </c>
-      <c r="C43" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D43" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E43" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="F43" t="s">
         <v>12</v>
@@ -1855,57 +1803,10 @@
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" t="s">
-        <v>133</v>
-      </c>
-      <c r="C44" t="s">
-        <v>134</v>
-      </c>
-      <c r="D44" t="s">
-        <v>135</v>
-      </c>
-      <c r="E44" t="s">
-        <v>136</v>
-      </c>
-      <c r="F44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" t="s">
-        <v>137</v>
-      </c>
-      <c r="D45" t="s">
-        <v>138</v>
-      </c>
-      <c r="E45" t="s">
-        <v>93</v>
-      </c>
-      <c r="F45" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" t="s">
-        <v>139</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Bibsam_tidskriftslistor/scifree_data_rsc.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_rsc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_8A8355D3CADCAC7CDE32A3D7DD027E6962EED8DD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCFD4D9E-31BF-4452-BF3A-996E74BEA24B}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_8A8355D3CADCAC7CDE32A3D7DD027E6962EED8DD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4B57A8E-6786-4F3B-847F-D524C43D25B3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="149">
   <si>
     <t>ISSN Electronic</t>
   </si>
@@ -442,12 +442,6 @@
     <t>CC-BY, CC-BY-NC</t>
   </si>
   <si>
-    <t>2040-2511</t>
-  </si>
-  <si>
-    <t>2040-2503</t>
-  </si>
-  <si>
     <t>RSC Medicinal Chemistry</t>
   </si>
   <si>
@@ -463,33 +457,6 @@
     <t>https://doi.org/10.1039/2041-6539/2010</t>
   </si>
   <si>
-    <t>Journal of Environmental Monitoring</t>
-  </si>
-  <si>
-    <t>1464-0333</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1039/1464-0333/1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Journal of Materials Chemistry </t>
-  </si>
-  <si>
-    <t>1364-5501</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1039/1364-5501/1991</t>
-  </si>
-  <si>
-    <t>Molecular BioSystems</t>
-  </si>
-  <si>
-    <t>1742-2051</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1039/1742-2051/2005</t>
-  </si>
-  <si>
     <t>Organic Chemistry Frontiers</t>
   </si>
   <si>
@@ -497,12 +464,6 @@
   </si>
   <si>
     <t>https://doi.org/10.1039/2052-4129/2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MedChemComm </t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.1039/2040-2511/2010</t>
   </si>
   <si>
     <t>2632-8682</t>
@@ -561,16 +522,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D56AF04D-CD95-4202-BEEE-EA96C387F7F9}" name="Table2" displayName="Table2" ref="A1:G43" totalsRowShown="0">
-  <autoFilter ref="A1:G43" xr:uid="{D56AF04D-CD95-4202-BEEE-EA96C387F7F9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D5937BC2-CB9A-4140-B713-621CEF137D76}" name="Table1" displayName="Table1" ref="A1:G39" totalsRowShown="0">
+  <autoFilter ref="A1:G39" xr:uid="{D5937BC2-CB9A-4140-B713-621CEF137D76}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{B1FF1231-E03F-48E6-9D41-E6E5788EEA8E}" name="Imprint"/>
-    <tableColumn id="2" xr3:uid="{7B68A1E0-14D5-4E75-94DC-CABC8BC376F9}" name="ISSN Electronic"/>
-    <tableColumn id="3" xr3:uid="{4B487ECF-F60F-49C0-A5C2-4F9D957B9D7F}" name="ISSN Print"/>
-    <tableColumn id="4" xr3:uid="{0BF8AF11-3265-43EB-92EA-556BB7A8E0A1}" name="Journal Name"/>
-    <tableColumn id="5" xr3:uid="{A0671979-2025-4DAD-AF8A-1391D32D77E9}" name="JournalURL"/>
-    <tableColumn id="6" xr3:uid="{0642EA20-EF20-4282-9A42-7C3E757204ED}" name="Publishing model"/>
-    <tableColumn id="7" xr3:uid="{AA4CD8C6-7D87-46AF-8EFA-F4EFFAC37E48}" name="CC License options"/>
+    <tableColumn id="1" xr3:uid="{9B21152B-56D7-4087-A6F1-4AB455A6BDD6}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{C007C9FD-1B6D-4514-A1E0-29FC9C203164}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{BC9D926D-81A1-4ECA-B2EB-B41069EE245B}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{2C7A0535-4D2B-44D8-AD30-CECD786A224B}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{35037A2E-BE41-49B6-A885-9DDEAC0375C8}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{101B9A58-E036-4F1A-A0F8-8D45416EBB37}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{A2026059-6076-4602-9473-F43C824A5569}" name="CC License options"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -838,8 +799,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC94F9A-5943-4AC3-8AEE-9D7EC508522C}">
-  <dimension ref="A1:G43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D853A405-97C0-4EAA-BEFC-87771E0E3BA0}">
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -999,13 +960,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" t="s">
         <v>144</v>
-      </c>
-      <c r="E7" t="s">
-        <v>146</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -1289,13 +1250,16 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>148</v>
+        <v>75</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="E20" t="s">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
@@ -1309,13 +1273,16 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>151</v>
+        <v>79</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -1329,16 +1296,16 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F22" t="s">
         <v>12</v>
@@ -1352,16 +1319,16 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E23" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
@@ -1375,16 +1342,13 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E24" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
@@ -1398,16 +1362,16 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E25" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
@@ -1421,13 +1385,13 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E26" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
@@ -1441,16 +1405,13 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E27" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
@@ -1464,16 +1425,16 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="D28" t="s">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="E28" t="s">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
@@ -1487,13 +1448,13 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="D29" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E29" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
@@ -1507,13 +1468,16 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>111</v>
+      </c>
+      <c r="C30" t="s">
+        <v>112</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E30" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
@@ -1527,13 +1491,16 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>115</v>
+      </c>
+      <c r="C31" t="s">
+        <v>116</v>
       </c>
       <c r="D31" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="E31" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
@@ -1547,16 +1514,16 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C32" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="E32" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="F32" t="s">
         <v>12</v>
@@ -1570,13 +1537,13 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="D33" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="E33" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
@@ -1590,16 +1557,16 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E34" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F34" t="s">
         <v>12</v>
@@ -1613,16 +1580,16 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C35" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="D35" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="E35" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="F35" t="s">
         <v>12</v>
@@ -1636,16 +1603,13 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
-      </c>
-      <c r="C36" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D36" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E36" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="F36" t="s">
         <v>12</v>
@@ -1659,13 +1623,13 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D37" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="E37" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
@@ -1679,16 +1643,16 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C38" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D38" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E38" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F38" t="s">
         <v>12</v>
@@ -1702,104 +1666,18 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
-      </c>
-      <c r="C39" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D39" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E39" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="F39" t="s">
         <v>12</v>
       </c>
       <c r="G39" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" t="s">
-        <v>130</v>
-      </c>
-      <c r="D40" t="s">
-        <v>131</v>
-      </c>
-      <c r="E40" t="s">
-        <v>132</v>
-      </c>
-      <c r="F40" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" t="s">
-        <v>161</v>
-      </c>
-      <c r="D41" t="s">
-        <v>142</v>
-      </c>
-      <c r="E41" t="s">
-        <v>143</v>
-      </c>
-      <c r="F41" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" t="s">
-        <v>134</v>
-      </c>
-      <c r="D42" t="s">
-        <v>135</v>
-      </c>
-      <c r="E42" t="s">
-        <v>136</v>
-      </c>
-      <c r="F42" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" t="s">
-        <v>137</v>
-      </c>
-      <c r="D43" t="s">
-        <v>138</v>
-      </c>
-      <c r="E43" t="s">
-        <v>93</v>
-      </c>
-      <c r="F43" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" t="s">
         <v>139</v>
       </c>
     </row>

--- a/Bibsam_tidskriftslistor/scifree_data_rsc.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_rsc.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_8A8355D3CADCAC7CDE32A3D7DD027E6962EED8DD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4B57A8E-6786-4F3B-847F-D524C43D25B3}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_8A8355D3CADCAC7CDE32A3D7DD027E6962EED8DD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6981CAF2-9CB3-40A3-ADFE-32C4EACE27CF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="146">
   <si>
     <t>ISSN Electronic</t>
   </si>
@@ -446,15 +446,6 @@
   </si>
   <si>
     <t>https://www.rsc.org/journals-books-databases/about-journals/rsc-medicinal-chemistry</t>
-  </si>
-  <si>
-    <t>Chemical Science</t>
-  </si>
-  <si>
-    <t>2041-6539</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1039/2041-6539/2010</t>
   </si>
   <si>
     <t>Organic Chemistry Frontiers</t>
@@ -522,8 +513,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D5937BC2-CB9A-4140-B713-621CEF137D76}" name="Table1" displayName="Table1" ref="A1:G39" totalsRowShown="0">
-  <autoFilter ref="A1:G39" xr:uid="{D5937BC2-CB9A-4140-B713-621CEF137D76}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D5937BC2-CB9A-4140-B713-621CEF137D76}" name="Table1" displayName="Table1" ref="A1:G38" totalsRowShown="0">
+  <autoFilter ref="A1:G38" xr:uid="{D5937BC2-CB9A-4140-B713-621CEF137D76}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{9B21152B-56D7-4087-A6F1-4AB455A6BDD6}" name="Imprint"/>
     <tableColumn id="2" xr3:uid="{C007C9FD-1B6D-4514-A1E0-29FC9C203164}" name="ISSN Electronic"/>
@@ -800,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D853A405-97C0-4EAA-BEFC-87771E0E3BA0}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,13 +951,16 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -980,16 +974,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -1003,13 +994,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -1023,16 +1017,16 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
@@ -1046,16 +1040,16 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -1069,16 +1063,16 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1092,16 +1086,16 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -1115,16 +1109,16 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
@@ -1138,16 +1132,16 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -1161,16 +1155,16 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -1184,16 +1178,13 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
@@ -1207,13 +1198,16 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
+        <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
@@ -1227,16 +1221,16 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
@@ -1250,16 +1244,16 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
@@ -1273,16 +1267,16 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -1296,16 +1290,16 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E22" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F22" t="s">
         <v>12</v>
@@ -1319,16 +1313,13 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D23" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E23" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
@@ -1342,13 +1333,16 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>94</v>
+      </c>
+      <c r="C24" t="s">
+        <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
@@ -1362,16 +1356,13 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
@@ -1385,13 +1376,13 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D26" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E26" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
@@ -1405,13 +1396,16 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>104</v>
+      </c>
+      <c r="C27" t="s">
+        <v>105</v>
       </c>
       <c r="D27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E27" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
@@ -1425,16 +1419,13 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E28" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
@@ -1448,13 +1439,16 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>111</v>
+      </c>
+      <c r="C29" t="s">
+        <v>112</v>
       </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E29" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
@@ -1468,16 +1462,16 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D30" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E30" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
@@ -1491,16 +1485,16 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D31" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E31" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
@@ -1514,16 +1508,13 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
-      </c>
-      <c r="C32" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="D32" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="E32" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="F32" t="s">
         <v>12</v>
@@ -1537,13 +1528,16 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>146</v>
+        <v>123</v>
+      </c>
+      <c r="C33" t="s">
+        <v>124</v>
       </c>
       <c r="D33" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="E33" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
@@ -1557,16 +1551,16 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C34" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D34" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E34" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F34" t="s">
         <v>12</v>
@@ -1580,16 +1574,13 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>127</v>
-      </c>
-      <c r="C35" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D35" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E35" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F35" t="s">
         <v>12</v>
@@ -1603,13 +1594,13 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="D36" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E36" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F36" t="s">
         <v>12</v>
@@ -1623,13 +1614,16 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>148</v>
+        <v>133</v>
+      </c>
+      <c r="C37" t="s">
+        <v>134</v>
       </c>
       <c r="D37" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E37" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
@@ -1643,41 +1637,18 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D38" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E38" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="F38" t="s">
         <v>12</v>
       </c>
       <c r="G38" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" t="s">
-        <v>137</v>
-      </c>
-      <c r="D39" t="s">
-        <v>138</v>
-      </c>
-      <c r="E39" t="s">
-        <v>93</v>
-      </c>
-      <c r="F39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" t="s">
         <v>139</v>
       </c>
     </row>

--- a/Bibsam_tidskriftslistor/scifree_data_rsc.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_rsc.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr filterPrivacy="1"/>
   <xr:revisionPtr revIDLastSave="11" documentId="11_8A8355D3CADCAC7CDE32A3D7DD027E6962EED8DD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6981CAF2-9CB3-40A3-ADFE-32C4EACE27CF}"/>
   <bookViews>
@@ -794,7 +794,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
